--- a/data/source links.xlsx
+++ b/data/source links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magoo\Desktop\nss-data-analytics\projects\Capstone\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magoo\Desktop\nss-data-analytics\projects\He-who-must-not-be-named-as-capstone-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396AE0A-24AD-41AC-88F1-624AF0AA2488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F5960-54D1-4BC0-A527-957A13063286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13704" yWindow="3576" windowWidth="14232" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19488" yWindow="4464" windowWidth="14232" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>WIC</t>
   </si>
@@ -42,9 +42,6 @@
     <t>SNAP</t>
   </si>
   <si>
-    <t>Population and Income</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -58,6 +55,18 @@
   </si>
   <si>
     <t>excel file</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>need download</t>
+  </si>
+  <si>
+    <t>budget</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,65 +407,80 @@
     <col min="2" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="detailed/2/any/false/1729/any/13222,10115" xr:uid="{0FD61305-A7BE-4E1F-A6A7-2D87FB2FC794}"/>
-    <hyperlink ref="A2" r:id="rId2" location="Tennessee" xr:uid="{2786180B-E06C-4C87-BE71-D67CED7B8CCF}"/>
-    <hyperlink ref="A1" r:id="rId3" display="Population" xr:uid="{ADF98A09-6524-4DA5-86DD-6C69A454BEC3}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{239BEDA0-6765-4D0E-871F-E742BFD91DF9}"/>
-    <hyperlink ref="A5" r:id="rId5" display="State retail food sales" xr:uid="{BBB7EEDF-1F94-4DFD-846F-67F7B6C1F3B4}"/>
-    <hyperlink ref="A6" r:id="rId6" display="Total monthly food sales" xr:uid="{62E43D3A-85BA-4F8A-B05C-A975BC5CED98}"/>
+    <hyperlink ref="A4" r:id="rId1" location="detailed/2/any/false/1729/any/13222,10115" xr:uid="{0FD61305-A7BE-4E1F-A6A7-2D87FB2FC794}"/>
+    <hyperlink ref="A3" r:id="rId2" location="Tennessee" xr:uid="{2786180B-E06C-4C87-BE71-D67CED7B8CCF}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{ADF98A09-6524-4DA5-86DD-6C69A454BEC3}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{239BEDA0-6765-4D0E-871F-E742BFD91DF9}"/>
+    <hyperlink ref="A6" r:id="rId5" display="State retail food sales" xr:uid="{BBB7EEDF-1F94-4DFD-846F-67F7B6C1F3B4}"/>
+    <hyperlink ref="A7" r:id="rId6" display="Total monthly food sales" xr:uid="{62E43D3A-85BA-4F8A-B05C-A975BC5CED98}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{5B396E29-D1F9-4F21-8A25-721F779A8D4D}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{7DBAD3FF-E892-4DE7-AC98-566876762A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source links.xlsx
+++ b/data/source links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magoo\Desktop\nss-data-analytics\projects\He-who-must-not-be-named-as-capstone-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F5960-54D1-4BC0-A527-957A13063286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E21AA5-DB4B-4F2F-82EC-A59F59E2111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19488" yWindow="4464" windowWidth="14232" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>WIC</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Annual food sales by purchaser</t>
   </si>
   <si>
-    <t>webscrape</t>
-  </si>
-  <si>
     <t>excel file</t>
   </si>
   <si>
@@ -63,10 +60,13 @@
     <t>Income</t>
   </si>
   <si>
-    <t>need download</t>
-  </si>
-  <si>
-    <t>budget</t>
+    <t>cost of living</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,68 +407,72 @@
     <col min="2" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -476,11 +480,20 @@
     <hyperlink ref="A4" r:id="rId1" location="detailed/2/any/false/1729/any/13222,10115" xr:uid="{0FD61305-A7BE-4E1F-A6A7-2D87FB2FC794}"/>
     <hyperlink ref="A3" r:id="rId2" location="Tennessee" xr:uid="{2786180B-E06C-4C87-BE71-D67CED7B8CCF}"/>
     <hyperlink ref="A1" r:id="rId3" xr:uid="{ADF98A09-6524-4DA5-86DD-6C69A454BEC3}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{239BEDA0-6765-4D0E-871F-E742BFD91DF9}"/>
+    <hyperlink ref="A5" r:id="rId4" location="2019_data" xr:uid="{239BEDA0-6765-4D0E-871F-E742BFD91DF9}"/>
     <hyperlink ref="A6" r:id="rId5" display="State retail food sales" xr:uid="{BBB7EEDF-1F94-4DFD-846F-67F7B6C1F3B4}"/>
     <hyperlink ref="A7" r:id="rId6" display="Total monthly food sales" xr:uid="{62E43D3A-85BA-4F8A-B05C-A975BC5CED98}"/>
     <hyperlink ref="A2" r:id="rId7" xr:uid="{5B396E29-D1F9-4F21-8A25-721F779A8D4D}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{7DBAD3FF-E892-4DE7-AC98-566876762A88}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{079D1AC1-AAC2-4947-9195-1315F2961017}"/>
+    <hyperlink ref="B1" r:id="rId9" xr:uid="{7CAE7AA3-7DED-49C7-A77B-E9DD4841D380}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{4B539EFD-D4C2-403A-92BB-1C9575C57F0D}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{73B74FC5-8B2F-427A-8273-1CF032804099}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{9FF2FE45-E932-4FD8-B8B8-F49A967C24D9}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{8DF6A780-A72A-477A-8756-F345FE0A2D26}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{E5AD2527-32A1-403F-9A9D-63B01C65C6DF}"/>
+    <hyperlink ref="B7" r:id="rId15" xr:uid="{BD469E56-2BA2-4231-8485-ED05D6E08593}"/>
+    <hyperlink ref="B8" r:id="rId16" xr:uid="{389278FB-C55A-4DF1-B0DA-7C49C251076C}"/>
+    <hyperlink ref="B3" r:id="rId17" xr:uid="{691343BB-9405-49CE-A249-01071095EA1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
